--- a/medicine/Mort/Monument_aux_morts_de_la_guerre_de_1870_de_Montauban/Monument_aux_morts_de_la_guerre_de_1870_de_Montauban.xlsx
+++ b/medicine/Mort/Monument_aux_morts_de_la_guerre_de_1870_de_Montauban/Monument_aux_morts_de_la_guerre_de_1870_de_Montauban.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le monument aux morts de la guerre de 1870 de Montauban, également connu sous son nom d'œuvre artistique Monument aux combattants et défenseurs du Tarn-et-Garonne de 1870-1871[1], est un monument aux morts situé à Montauban, ville natale du sculpteur Antoine Bourdelle, dont c'est l'une des premières œuvres majeures. Ce dernier put triompher des oppositions grâce à l'intervention de Rodin en 1897. Le monument achevé en 1902 est aujourd'hui érigé place Bourdelle[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le monument aux morts de la guerre de 1870 de Montauban, également connu sous son nom d'œuvre artistique Monument aux combattants et défenseurs du Tarn-et-Garonne de 1870-1871, est un monument aux morts situé à Montauban, ville natale du sculpteur Antoine Bourdelle, dont c'est l'une des premières œuvres majeures. Ce dernier put triompher des oppositions grâce à l'intervention de Rodin en 1897. Le monument achevé en 1902 est aujourd'hui érigé place Bourdelle.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1893, Bourdelle entre comme praticien dans l'atelier de Rodin.
 En 1895, un concours est lancé par la Société des anciens combattants de Montauban le 30 avril pour la réalisation d'un monument aux morts de la guerre franco-allemande de 1870. Les maquettes sont présentées du 1er au 12 août dans les salles d’exposition du musée Ingres de Montauban. Bourdelle participe au concours.
@@ -549,7 +563,9 @@
           <t>Caractéristiques du monument</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monument est le fruit d'une lente maturation, il est composé de plusieurs moments successifs comme les compositions médiévales. On distingue : 
 l'assaut,
@@ -562,11 +578,11 @@
 La France,
 Le grand guerrier de Montauban, Bronze,
 Masque d'Hercule, Bronze.
-Cela permet de comprendre le cheminement de l'artiste[1].
-L’œuvre de Bourdelle, à la manière de Rodin, exprime la violence, le déchaînement des passions et des sentiments par la déformation des corps au-delà de la vraisemblance : Guerrier sans jambe, La France[1].
+Cela permet de comprendre le cheminement de l'artiste.
+L’œuvre de Bourdelle, à la manière de Rodin, exprime la violence, le déchaînement des passions et des sentiments par la déformation des corps au-delà de la vraisemblance : Guerrier sans jambe, La France.
 Par cette œuvre selon Rodin, 
 « Bourdelle a contribué à régénérer la sculpture actuelle autant qu'il pouvait le faire au jour où nous vivons »
-— [1].
+— .
 Certaines de ces sculptures n'ont pas été assemblées avec le monument de Montauban.
 			Le grand guerrier de Montauban Fondation Bemberg Toulouse
 			Le Masque d'Hercules - 1905 - Bronze - Musée Ingres-Bourdelle
@@ -600,6 +616,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
